--- a/jst_rebuild/file/房单数据.xlsx
+++ b/jst_rebuild/file/房单数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>酒店号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,27 +72,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-07-20 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-21 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JJ69876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JJ1094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346</t>
+    <t>2020-08-20 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-21 00:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,7 +491,7 @@
         <v>5353</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -521,155 +509,15 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
